--- a/myData/LEB 7-26-18 Strain 41 42 43.xlsx
+++ b/myData/LEB 7-26-18 Strain 41 42 43.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="23000" windowHeight="13860" activeTab="2"/>
+    <workbookView xWindow="4640" yWindow="0" windowWidth="23000" windowHeight="13860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="123">
   <si>
     <t>A</t>
   </si>
@@ -384,6 +384,12 @@
   </si>
   <si>
     <t>2018-07-26</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>dropExplanation</t>
   </si>
 </sst>
 </file>
@@ -3130,15 +3136,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P41"/>
+  <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="24">
+    <row r="1" spans="1:18" ht="24">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -3187,8 +3193,14 @@
       <c r="P1" s="18" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="12" t="s">
         <v>16</v>
       </c>
@@ -3235,8 +3247,11 @@
       <c r="P2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="Q2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12" t="s">
@@ -3273,8 +3288,11 @@
       <c r="P3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12" t="s">
@@ -3311,8 +3329,11 @@
       <c r="P4" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12" t="s">
@@ -3349,8 +3370,11 @@
       <c r="P5" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="12" t="s">
         <v>21</v>
       </c>
@@ -3397,8 +3421,11 @@
       <c r="P6">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
@@ -3435,8 +3462,11 @@
       <c r="P7">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12" t="s">
@@ -3473,8 +3503,11 @@
       <c r="P8">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12" t="s">
@@ -3511,8 +3544,11 @@
       <c r="P9">
         <v>60</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="12" t="s">
         <v>26</v>
       </c>
@@ -3559,8 +3595,11 @@
       <c r="P10">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12" t="s">
@@ -3597,8 +3636,11 @@
       <c r="P11">
         <v>60</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12" t="s">
@@ -3635,8 +3677,11 @@
       <c r="P12">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12" t="s">
@@ -3673,8 +3718,11 @@
       <c r="P13">
         <v>60</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="12" t="s">
         <v>31</v>
       </c>
@@ -3721,8 +3769,11 @@
       <c r="P14">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12" t="s">
@@ -3759,8 +3810,11 @@
       <c r="P15">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="Q15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12" t="s">
@@ -3797,8 +3851,11 @@
       <c r="P16">
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="Q16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12" t="s">
@@ -3835,8 +3892,11 @@
       <c r="P17">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="Q17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="12" t="s">
         <v>36</v>
       </c>
@@ -3883,8 +3943,11 @@
       <c r="P18">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="Q18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12" t="s">
@@ -3921,8 +3984,11 @@
       <c r="P19">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="Q19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12" t="s">
@@ -3959,8 +4025,11 @@
       <c r="P20">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="Q20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12" t="s">
@@ -3997,8 +4066,11 @@
       <c r="P21">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="Q21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="12" t="s">
         <v>41</v>
       </c>
@@ -4045,8 +4117,11 @@
       <c r="P22">
         <v>60</v>
       </c>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="Q22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12" t="s">
@@ -4083,8 +4158,11 @@
       <c r="P23">
         <v>60</v>
       </c>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="Q23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12" t="s">
@@ -4121,8 +4199,11 @@
       <c r="P24">
         <v>60</v>
       </c>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="Q24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12" t="s">
@@ -4159,8 +4240,11 @@
       <c r="P25">
         <v>60</v>
       </c>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="Q25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="12" t="s">
         <v>46</v>
       </c>
@@ -4207,8 +4291,11 @@
       <c r="P26">
         <v>60</v>
       </c>
-    </row>
-    <row r="27" spans="1:16">
+      <c r="Q26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12" t="s">
@@ -4245,8 +4332,11 @@
       <c r="P27">
         <v>60</v>
       </c>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="Q27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12" t="s">
@@ -4283,8 +4373,11 @@
       <c r="P28">
         <v>60</v>
       </c>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="Q28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12" t="s">
@@ -4321,8 +4414,11 @@
       <c r="P29">
         <v>60</v>
       </c>
-    </row>
-    <row r="30" spans="1:16">
+      <c r="Q29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="12" t="s">
         <v>51</v>
       </c>
@@ -4369,8 +4465,11 @@
       <c r="P30">
         <v>60</v>
       </c>
-    </row>
-    <row r="31" spans="1:16">
+      <c r="Q30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12" t="s">
@@ -4407,8 +4506,11 @@
       <c r="P31">
         <v>60</v>
       </c>
-    </row>
-    <row r="32" spans="1:16">
+      <c r="Q31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12" t="s">
@@ -4445,8 +4547,11 @@
       <c r="P32">
         <v>60</v>
       </c>
-    </row>
-    <row r="33" spans="1:16">
+      <c r="Q32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12" t="s">
@@ -4483,8 +4588,11 @@
       <c r="P33">
         <v>60</v>
       </c>
-    </row>
-    <row r="34" spans="1:16">
+      <c r="Q33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="12" t="s">
         <v>56</v>
       </c>
@@ -4531,8 +4639,11 @@
       <c r="P34">
         <v>60</v>
       </c>
-    </row>
-    <row r="35" spans="1:16">
+      <c r="Q34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12" t="s">
@@ -4569,8 +4680,11 @@
       <c r="P35">
         <v>60</v>
       </c>
-    </row>
-    <row r="36" spans="1:16">
+      <c r="Q35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12" t="s">
@@ -4607,8 +4721,11 @@
       <c r="P36">
         <v>60</v>
       </c>
-    </row>
-    <row r="37" spans="1:16">
+      <c r="Q36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12" t="s">
@@ -4645,8 +4762,11 @@
       <c r="P37">
         <v>60</v>
       </c>
-    </row>
-    <row r="38" spans="1:16">
+      <c r="Q37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" s="12" t="s">
         <v>61</v>
       </c>
@@ -4693,8 +4813,11 @@
       <c r="P38">
         <v>60</v>
       </c>
-    </row>
-    <row r="39" spans="1:16">
+      <c r="Q38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12" t="s">
@@ -4731,8 +4854,11 @@
       <c r="P39">
         <v>60</v>
       </c>
-    </row>
-    <row r="40" spans="1:16">
+      <c r="Q39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12" t="s">
@@ -4769,8 +4895,11 @@
       <c r="P40">
         <v>60</v>
       </c>
-    </row>
-    <row r="41" spans="1:16">
+      <c r="Q40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12" t="s">
@@ -4806,6 +4935,9 @@
       </c>
       <c r="P41">
         <v>60</v>
+      </c>
+      <c r="Q41" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4823,7 +4955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
